--- a/formatted_grades.xlsx
+++ b/formatted_grades.xlsx
@@ -7,18 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Algebra" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Trigonometry" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Geometry" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Calculus" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Statistics" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="US History" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="World History" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Economics" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sociology" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Algebra'!$A$1:$D$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Trigonometry'!$A$1:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Geometry'!$A$1:$D$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Calculus'!$A$1:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statistics'!$A$1:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US History'!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'World History'!$A$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Economics'!$A$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sociology'!$A$1:$D$38</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -427,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +477,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,11 +487,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A511960</t>
+          <t>A411502</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -501,28 +499,28 @@
         </is>
       </c>
       <c r="G2">
-        <f>MAX(D2:D41)</f>
+        <f>MAX(D2:D31)</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A852290</t>
+          <t>A264593</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -530,28 +528,28 @@
         </is>
       </c>
       <c r="G3">
-        <f>MIN(D2:D41)</f>
+        <f>MIN(D2:D31)</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A191599</t>
+          <t>A583929</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -559,14 +557,14 @@
         </is>
       </c>
       <c r="G4">
-        <f>AVERAGE(D2:D41)</f>
+        <f>AVERAGE(D2:D31)</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -576,11 +574,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A326605</t>
+          <t>A720520</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -588,28 +586,28 @@
         </is>
       </c>
       <c r="G5">
-        <f>MEDIAN(D2:D41)</f>
+        <f>MEDIAN(D2:D31)</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A429383</t>
+          <t>A167602</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -617,14 +615,14 @@
         </is>
       </c>
       <c r="G6">
-        <f>COUNT(D2:D41)</f>
+        <f>COUNT(D2:D31)</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -634,157 +632,157 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A963166</t>
+          <t>A964785</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A232898</t>
+          <t>A973821</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A856084</t>
+          <t>A168077</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A315775</t>
+          <t>A906147</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A571267</t>
+          <t>A944981</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A779742</t>
+          <t>A436358</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A454051</t>
+          <t>A709025</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A486318</t>
+          <t>A226508</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -794,237 +792,237 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A564766</t>
+          <t>A642508</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A206975</t>
+          <t>A776697</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A201811</t>
+          <t>A345105</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A893320</t>
+          <t>A832461</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A516256</t>
+          <t>A771469</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A817532</t>
+          <t>A642695</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A515984</t>
+          <t>A303780</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A941835</t>
+          <t>A908192</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A933686</t>
+          <t>A915935</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A654057</t>
+          <t>A953645</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A874468</t>
+          <t>A239606</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A994973</t>
+          <t>A376048</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1034,31 +1032,31 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A393154</t>
+          <t>A544176</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A323721</t>
+          <t>A207415</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1069,260 +1067,60 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A170362</t>
+          <t>A414782</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A621068</t>
+          <t>A459429</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A619854</t>
+          <t>A544532</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A207386</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A674244</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A860197</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A643151</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A597576</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A257351</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A699748</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A810037</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A399574</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A609852</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D41"/>
+  <autoFilter ref="A1:D31"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1333,7 +1131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,21 +1183,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A954650</t>
+          <t>A224814</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -1407,28 +1205,28 @@
         </is>
       </c>
       <c r="G2">
-        <f>MAX(D2:D36)</f>
+        <f>MAX(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A719848</t>
+          <t>A721849</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1436,28 +1234,28 @@
         </is>
       </c>
       <c r="G3">
-        <f>MIN(D2:D36)</f>
+        <f>MIN(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A731798</t>
+          <t>A632891</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1465,28 +1263,28 @@
         </is>
       </c>
       <c r="G4">
-        <f>AVERAGE(D2:D36)</f>
+        <f>AVERAGE(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A863769</t>
+          <t>A839154</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1494,28 +1292,28 @@
         </is>
       </c>
       <c r="G5">
-        <f>MEDIAN(D2:D36)</f>
+        <f>MEDIAN(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A304200</t>
+          <t>A654921</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1523,34 +1321,34 @@
         </is>
       </c>
       <c r="G6">
-        <f>COUNT(D2:D36)</f>
+        <f>COUNT(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A233365</t>
+          <t>A456673</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1560,51 +1358,51 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A201981</t>
+          <t>A861585</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A520661</t>
+          <t>A401874</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A630060</t>
+          <t>A691594</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1615,36 +1413,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A400216</t>
+          <t>A828069</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A772179</t>
+          <t>A577802</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1655,36 +1453,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A773242</t>
+          <t>A391741</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A803666</t>
+          <t>A315172</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1493,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A416979</t>
+          <t>A141349</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1715,96 +1513,96 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A892596</t>
+          <t>A882585</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A751614</t>
+          <t>A878730</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A858580</t>
+          <t>A633066</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A676288</t>
+          <t>A985522</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A641012</t>
+          <t>A191033</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -1820,17 +1618,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A791503</t>
+          <t>A810174</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1840,111 +1638,111 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A793139</t>
+          <t>A315975</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A500852</t>
+          <t>A615686</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A600500</t>
+          <t>A137519</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A924996</t>
+          <t>A515348</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A150818</t>
+          <t>A882142</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A799480</t>
+          <t>A748660</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -1955,16 +1753,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A344337</t>
+          <t>A413567</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -1975,62 +1773,62 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A332047</t>
+          <t>A202409</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A845081</t>
+          <t>A856819</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A673135</t>
+          <t>A930566</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2040,95 +1838,175 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A192932</t>
+          <t>A794939</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A524322</t>
+          <t>A973902</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A411805</t>
+          <t>A178063</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A259164</t>
+          <t>A906827</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A620696</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A911729</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A293408</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A606582</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Garcia</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A614195</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>79</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A887613</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
+  <autoFilter ref="A1:D40"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2139,7 +2017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2196,16 +2074,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A503508</t>
+          <t>A524563</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2213,28 +2091,28 @@
         </is>
       </c>
       <c r="G2">
-        <f>MAX(D2:D35)</f>
+        <f>MAX(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A892429</t>
+          <t>A136756</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2242,14 +2120,14 @@
         </is>
       </c>
       <c r="G3">
-        <f>MIN(D2:D35)</f>
+        <f>MIN(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2259,11 +2137,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A650359</t>
+          <t>A506708</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -2271,28 +2149,28 @@
         </is>
       </c>
       <c r="G4">
-        <f>AVERAGE(D2:D35)</f>
+        <f>AVERAGE(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A977417</t>
+          <t>A923990</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -2300,28 +2178,28 @@
         </is>
       </c>
       <c r="G5">
-        <f>MEDIAN(D2:D35)</f>
+        <f>MEDIAN(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A726795</t>
+          <t>A396362</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2329,28 +2207,28 @@
         </is>
       </c>
       <c r="G6">
-        <f>COUNT(D2:D35)</f>
+        <f>COUNT(D2:D40)</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A236589</t>
+          <t>A591499</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2361,162 +2239,162 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A687088</t>
+          <t>A636971</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A117549</t>
+          <t>A954763</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A563000</t>
+          <t>A602085</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A920130</t>
+          <t>A256211</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A134313</t>
+          <t>A315504</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A158991</t>
+          <t>A355334</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A915440</t>
+          <t>A840817</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A371439</t>
+          <t>A950177</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2526,67 +2404,67 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A971906</t>
+          <t>A556425</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A537662</t>
+          <t>A341776</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A229862</t>
+          <t>A670267</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A539099</t>
+          <t>A197327</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2596,61 +2474,61 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A670406</t>
+          <t>A276469</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A630640</t>
+          <t>A560443</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A376888</t>
+          <t>A675960</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -2661,22 +2539,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A102812</t>
+          <t>A150361</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2686,97 +2564,97 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A610724</t>
+          <t>A951439</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A296175</t>
+          <t>A658689</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A256031</t>
+          <t>A848040</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A347087</t>
+          <t>A965437</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A285995</t>
+          <t>A326210</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2786,135 +2664,235 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A980949</t>
+          <t>A452023</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A260772</t>
+          <t>A228761</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A337854</t>
+          <t>A874638</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A943057</t>
+          <t>A774064</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A831715</t>
+          <t>A801440</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A863519</t>
+          <t>A271333</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A776097</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A301916</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A651544</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A290581</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Davis</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A440904</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>34</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A220383</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A222043</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D40"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2925,7 +2903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2977,21 +2955,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A419955</t>
+          <t>A990760</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2999,28 +2977,28 @@
         </is>
       </c>
       <c r="G2">
-        <f>MAX(D2:D34)</f>
+        <f>MAX(D2:D38)</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A547872</t>
+          <t>A752761</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3028,7 +3006,7 @@
         </is>
       </c>
       <c r="G3">
-        <f>MIN(D2:D34)</f>
+        <f>MIN(D2:D38)</f>
         <v/>
       </c>
     </row>
@@ -3040,16 +3018,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A200743</t>
+          <t>A348887</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3057,28 +3035,28 @@
         </is>
       </c>
       <c r="G4">
-        <f>AVERAGE(D2:D34)</f>
+        <f>AVERAGE(D2:D38)</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A314989</t>
+          <t>A215663</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3086,28 +3064,28 @@
         </is>
       </c>
       <c r="G5">
-        <f>MEDIAN(D2:D34)</f>
+        <f>MEDIAN(D2:D38)</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A402372</t>
+          <t>A654708</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3115,68 +3093,68 @@
         </is>
       </c>
       <c r="G6">
-        <f>COUNT(D2:D34)</f>
+        <f>COUNT(D2:D38)</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A913128</t>
+          <t>A186719</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A105615</t>
+          <t>A310135</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A371671</t>
+          <t>A835775</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -3187,72 +3165,72 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A323300</t>
+          <t>A272775</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A267168</t>
+          <t>A624562</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A992643</t>
+          <t>A308336</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A349246</t>
+          <t>A454516</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3262,7 +3240,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3272,231 +3250,231 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A846325</t>
+          <t>A203575</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A460567</t>
+          <t>A207205</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A122709</t>
+          <t>A515238</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A308435</t>
+          <t>A685270</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A125691</t>
+          <t>A767232</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A634421</t>
+          <t>A631348</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A604398</t>
+          <t>A811327</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A480800</t>
+          <t>A772539</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A497972</t>
+          <t>A283318</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A852078</t>
+          <t>A790254</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A426945</t>
+          <t>A818790</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A296980</t>
+          <t>A642966</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -3512,71 +3490,71 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A300703</t>
+          <t>A700768</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A716956</t>
+          <t>A223027</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A684265</t>
+          <t>A283598</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A509185</t>
+          <t>A172081</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -3587,62 +3565,62 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A899920</t>
+          <t>A474219</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A812418</t>
+          <t>A540763</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A384253</t>
+          <t>A431682</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3652,817 +3630,51 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A865432</t>
+          <t>A878608</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A800071</t>
+          <t>A311979</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D34"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Summary Statistics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A660145</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>55</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Highest Grade</t>
-        </is>
-      </c>
-      <c r="G2">
-        <f>MAX(D2:D39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A173278</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>54</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lowest Grade</t>
-        </is>
-      </c>
-      <c r="G3">
-        <f>MIN(D2:D39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A486548</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>92</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Mean Grade</t>
-        </is>
-      </c>
-      <c r="G4">
-        <f>AVERAGE(D2:D39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A499761</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>91</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Median Grade</t>
-        </is>
-      </c>
-      <c r="G5">
-        <f>MEDIAN(D2:D39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A199405</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>14</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Number of Students</t>
-        </is>
-      </c>
-      <c r="G6">
-        <f>COUNT(D2:D39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A785670</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A335383</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A793880</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A889747</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A723501</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A871317</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A174596</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A307595</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A779442</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A589928</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A627045</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A755395</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A967916</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A426255</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A282768</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A788958</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A123679</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A781203</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A689526</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A849390</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A269091</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A553176</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A908120</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A548819</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A213644</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A206913</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A335585</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A768962</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A723308</t>
+          <t>A239233</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -4473,80 +3685,60 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A543651</t>
+          <t>A265854</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A377141</t>
+          <t>A145837</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A696942</t>
+          <t>A750210</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A701491</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D39"/>
+  <autoFilter ref="A1:D38"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>